--- a/stopwords_campbell.xlsx
+++ b/stopwords_campbell.xlsx
@@ -1,443 +1,347 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Pydata3\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CCFE0F1-1C29-499A-A1E9-C62D52477A10}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{21C5D560-E276-41CA-A0EC-00227F2B5776}"/>
-  </bookViews>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <workbookPr/>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <definedNames/>
+  <calcPr/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
+    <ext uri="GoogleSheetsCustomDataVersion1">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mg5jXglyENwUwmev4MOMx8UmoiOxA=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="102">
   <si>
     <t>STOPWORDS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>단원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>그림</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>개념확인문제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>정답은부록참조</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>부록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>요약</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>핵심개념요약</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>핵심개념</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>개념</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>과학적사고력키우기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>과학사고력키우기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>다른</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>가지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>때문</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>결과</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>대한</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>일부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>가장</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>모든</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>하나</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>우리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>서로</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>자료</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>방식</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>발견</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>하라</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>수컷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>포함</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>사람</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>대해</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>연구자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>다음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>관찰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>경우</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>실험</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>또한</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>로부터</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>위해</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>매우</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>초기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>동안</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>생각</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>현재</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>각각</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>오늘날</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>여러</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>모두</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>통해</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>표시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>암컷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>자신</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>문제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>비록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>이상</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>만약</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>부리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> 자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>특정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>정도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>방법</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>무엇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>이후</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>수도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>부분</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>대부분</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>부위</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>다리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>시기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>다시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>과학</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>핵심</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>예측</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>관련</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>초파리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>의미</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>과학자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>호수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">대 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>참조</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>도마뱀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>연대</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>반면</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>이유</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>일반</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>계속</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>거의</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>수의</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>식물</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>포유류</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>동물</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>조류</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>곤충</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">척추 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>공룡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>침팬지</t>
   </si>
   <si>
     <t>물고기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>침팬지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연구</t>
+  </si>
+  <si>
+    <t>분석</t>
+  </si>
+  <si>
+    <t>확인</t>
+  </si>
+  <si>
+    <t>둘째</t>
+  </si>
+  <si>
+    <t>첫째</t>
+  </si>
+  <si>
+    <t>따라서</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <fonts count="3">
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
+      <name val="Arial"/>
     </font>
     <font>
-      <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="&quot;맑은 고딕&quot;"/>
     </font>
   </fonts>
   <fills count="2">
@@ -445,59 +349,52 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="lightGray"/>
     </fill>
   </fills>
   <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  </cellStyleXfs>
+  <cellXfs count="3">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-  </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Sheets">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="000000"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="4472C4"/>
@@ -521,113 +418,19 @@
         <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="0563C1"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Sheets">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface="Calibri"/>
+        <a:cs typeface="Calibri"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface="Calibri"/>
+        <a:cs typeface="Calibri"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -768,519 +571,1438 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9599BEBD-5CF6-4C08-935E-1DD8E6DA5096}">
-  <dimension ref="A1:A98"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <pageSetUpPr/>
+  </sheetPr>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="C95" sqref="C95"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="16.0"/>
+    <col customWidth="1" min="2" max="26" width="7.63"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
+    <row r="1" ht="17.25" customHeight="1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
+    <row r="2" ht="17.25" customHeight="1">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
+    <row r="3" ht="17.25" customHeight="1">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
+    <row r="4" ht="17.25" customHeight="1">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
+    <row r="5" ht="17.25" customHeight="1">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
+    <row r="6" ht="17.25" customHeight="1">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
+    <row r="7" ht="17.25" customHeight="1">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
+    <row r="8" ht="17.25" customHeight="1">
+      <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
+    <row r="9" ht="17.25" customHeight="1">
+      <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
+    <row r="10" ht="17.25" customHeight="1">
+      <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="11" ht="17.25" customHeight="1">
       <c r="A11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
+    <row r="12" ht="17.25" customHeight="1">
+      <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
+    <row r="13" ht="17.25" customHeight="1">
+      <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
+    <row r="14" ht="17.25" customHeight="1">
+      <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
+    <row r="15" ht="17.25" customHeight="1">
+      <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
+    <row r="16" ht="17.25" customHeight="1">
+      <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
+    <row r="17" ht="17.25" customHeight="1">
+      <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A18" t="s">
+    <row r="18" ht="17.25" customHeight="1">
+      <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A19" t="s">
+    <row r="19" ht="17.25" customHeight="1">
+      <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A20" t="s">
+    <row r="20" ht="17.25" customHeight="1">
+      <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A21" t="s">
+    <row r="21" ht="17.25" customHeight="1">
+      <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A22" t="s">
+    <row r="22" ht="17.25" customHeight="1">
+      <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A23" t="s">
+    <row r="23" ht="17.25" customHeight="1">
+      <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A24" t="s">
+    <row r="24" ht="17.25" customHeight="1">
+      <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A25" t="s">
+    <row r="25" ht="17.25" customHeight="1">
+      <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A26" t="s">
+    <row r="26" ht="17.25" customHeight="1">
+      <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A27" t="s">
+    <row r="27" ht="17.25" customHeight="1">
+      <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A28" t="s">
+    <row r="28" ht="17.25" customHeight="1">
+      <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A29" t="s">
+    <row r="29" ht="17.25" customHeight="1">
+      <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A30" t="s">
+    <row r="30" ht="17.25" customHeight="1">
+      <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A31" t="s">
+    <row r="31" ht="17.25" customHeight="1">
+      <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A32" t="s">
+    <row r="32" ht="17.25" customHeight="1">
+      <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A33" t="s">
+    <row r="33" ht="17.25" customHeight="1">
+      <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A34" t="s">
+    <row r="34" ht="17.25" customHeight="1">
+      <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A35" t="s">
+    <row r="35" ht="17.25" customHeight="1">
+      <c r="A35" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A36" t="s">
+    <row r="36" ht="17.25" customHeight="1">
+      <c r="A36" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A37" t="s">
+    <row r="37" ht="17.25" customHeight="1">
+      <c r="A37" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A38" t="s">
+    <row r="38" ht="17.25" customHeight="1">
+      <c r="A38" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A39" t="s">
+    <row r="39" ht="17.25" customHeight="1">
+      <c r="A39" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A40" t="s">
+    <row r="40" ht="17.25" customHeight="1">
+      <c r="A40" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A41" t="s">
+    <row r="41" ht="17.25" customHeight="1">
+      <c r="A41" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A42" t="s">
+    <row r="42" ht="17.25" customHeight="1">
+      <c r="A42" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A43" t="s">
+    <row r="43" ht="17.25" customHeight="1">
+      <c r="A43" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A44" t="s">
+    <row r="44" ht="17.25" customHeight="1">
+      <c r="A44" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A45" t="s">
+    <row r="45" ht="17.25" customHeight="1">
+      <c r="A45" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A46" t="s">
+    <row r="46" ht="17.25" customHeight="1">
+      <c r="A46" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A47" t="s">
+    <row r="47" ht="17.25" customHeight="1">
+      <c r="A47" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A48" t="s">
+    <row r="48" ht="17.25" customHeight="1">
+      <c r="A48" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A49" t="s">
+    <row r="49" ht="17.25" customHeight="1">
+      <c r="A49" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A50" t="s">
+    <row r="50" ht="17.25" customHeight="1">
+      <c r="A50" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A51" t="s">
+    <row r="51" ht="17.25" customHeight="1">
+      <c r="A51" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A52" t="s">
+    <row r="52" ht="17.25" customHeight="1">
+      <c r="A52" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A53" t="s">
+    <row r="53" ht="17.25" customHeight="1">
+      <c r="A53" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A54" t="s">
+    <row r="54" ht="17.25" customHeight="1">
+      <c r="A54" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A55" t="s">
+    <row r="55" ht="17.25" customHeight="1">
+      <c r="A55" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A56" t="s">
+    <row r="56" ht="17.25" customHeight="1">
+      <c r="A56" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A57" t="s">
+    <row r="57" ht="17.25" customHeight="1">
+      <c r="A57" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A58" t="s">
+    <row r="58" ht="17.25" customHeight="1">
+      <c r="A58" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A59" t="s">
+    <row r="59" ht="17.25" customHeight="1">
+      <c r="A59" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A60" t="s">
+    <row r="60" ht="17.25" customHeight="1">
+      <c r="A60" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A61" t="s">
+    <row r="61" ht="17.25" customHeight="1">
+      <c r="A61" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A62" t="s">
+    <row r="62" ht="17.25" customHeight="1">
+      <c r="A62" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A63" t="s">
+    <row r="63" ht="17.25" customHeight="1">
+      <c r="A63" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A64" t="s">
+    <row r="64" ht="17.25" customHeight="1">
+      <c r="A64" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A65" t="s">
+    <row r="65" ht="17.25" customHeight="1">
+      <c r="A65" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A66" t="s">
+    <row r="66" ht="17.25" customHeight="1">
+      <c r="A66" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A67" t="s">
+    <row r="67" ht="17.25" customHeight="1">
+      <c r="A67" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A68" t="s">
+    <row r="68" ht="17.25" customHeight="1">
+      <c r="A68" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A69" t="s">
+    <row r="69" ht="17.25" customHeight="1">
+      <c r="A69" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A70" t="s">
+    <row r="70" ht="17.25" customHeight="1">
+      <c r="A70" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A71" t="s">
+    <row r="71" ht="17.25" customHeight="1">
+      <c r="A71" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A72" t="s">
+    <row r="72" ht="17.25" customHeight="1">
+      <c r="A72" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A73" t="s">
+    <row r="73" ht="17.25" customHeight="1">
+      <c r="A73" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A74" t="s">
+    <row r="74" ht="17.25" customHeight="1">
+      <c r="A74" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A75" t="s">
+    <row r="75" ht="17.25" customHeight="1">
+      <c r="A75" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A76" t="s">
+    <row r="76" ht="17.25" customHeight="1">
+      <c r="A76" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A77" t="s">
+    <row r="77" ht="17.25" customHeight="1">
+      <c r="A77" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A78" t="s">
+    <row r="78" ht="17.25" customHeight="1">
+      <c r="A78" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A79" t="s">
+    <row r="79" ht="17.25" customHeight="1">
+      <c r="A79" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="80" ht="17.25" customHeight="1">
+      <c r="A80" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A80" t="s">
+    <row r="81" ht="17.25" customHeight="1">
+      <c r="A81" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A81" t="s">
+    <row r="82" ht="17.25" customHeight="1">
+      <c r="A82" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A82" t="s">
+    <row r="83" ht="17.25" customHeight="1">
+      <c r="A83" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A83" t="s">
+    <row r="84" ht="17.25" customHeight="1">
+      <c r="A84" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A84" t="s">
+    <row r="85" ht="17.25" customHeight="1">
+      <c r="A85" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A85" t="s">
+    <row r="86" ht="17.25" customHeight="1">
+      <c r="A86" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A86" t="s">
+    <row r="87" ht="17.25" customHeight="1">
+      <c r="A87" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A87" t="s">
+    <row r="88" ht="17.25" customHeight="1">
+      <c r="A88" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A88" t="s">
+    <row r="89" ht="17.25" customHeight="1">
+      <c r="A89" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A89" t="s">
+    <row r="90" ht="17.25" customHeight="1">
+      <c r="A90" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A90" t="s">
+    <row r="91" ht="17.25" customHeight="1">
+      <c r="A91" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A91" t="s">
+    <row r="92" ht="17.25" customHeight="1">
+      <c r="A92" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A92" t="s">
+    <row r="93" ht="17.25" customHeight="1">
+      <c r="A93" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A93" t="s">
+    <row r="94" ht="17.25" customHeight="1">
+      <c r="A94" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A94" t="s">
+    <row r="95" ht="17.25" customHeight="1">
+      <c r="A95" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A95" t="s">
+    <row r="96" ht="17.25" customHeight="1">
+      <c r="A96" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A96" t="s">
+    <row r="97" ht="17.25" customHeight="1">
+      <c r="A97" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A97" t="s">
+    <row r="98" ht="17.25" customHeight="1">
+      <c r="A98" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="99" ht="17.25" customHeight="1">
+      <c r="A99" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A98" t="s">
-        <v>96</v>
-      </c>
-    </row>
+    <row r="100" ht="17.25" customHeight="1">
+      <c r="A100" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="101" ht="17.25" customHeight="1">
+      <c r="A101" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="102" ht="17.25" customHeight="1">
+      <c r="A102" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="103" ht="17.25" customHeight="1">
+      <c r="A103" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="104" ht="17.25" customHeight="1"/>
+    <row r="105" ht="17.25" customHeight="1"/>
+    <row r="106" ht="17.25" customHeight="1"/>
+    <row r="107" ht="17.25" customHeight="1"/>
+    <row r="108" ht="17.25" customHeight="1"/>
+    <row r="109" ht="17.25" customHeight="1"/>
+    <row r="110" ht="17.25" customHeight="1"/>
+    <row r="111" ht="17.25" customHeight="1"/>
+    <row r="112" ht="17.25" customHeight="1"/>
+    <row r="113" ht="17.25" customHeight="1"/>
+    <row r="114" ht="17.25" customHeight="1"/>
+    <row r="115" ht="17.25" customHeight="1"/>
+    <row r="116" ht="17.25" customHeight="1"/>
+    <row r="117" ht="17.25" customHeight="1"/>
+    <row r="118" ht="17.25" customHeight="1"/>
+    <row r="119" ht="17.25" customHeight="1"/>
+    <row r="120" ht="17.25" customHeight="1"/>
+    <row r="121" ht="17.25" customHeight="1"/>
+    <row r="122" ht="17.25" customHeight="1"/>
+    <row r="123" ht="17.25" customHeight="1"/>
+    <row r="124" ht="17.25" customHeight="1"/>
+    <row r="125" ht="17.25" customHeight="1"/>
+    <row r="126" ht="17.25" customHeight="1"/>
+    <row r="127" ht="17.25" customHeight="1"/>
+    <row r="128" ht="17.25" customHeight="1"/>
+    <row r="129" ht="17.25" customHeight="1"/>
+    <row r="130" ht="17.25" customHeight="1"/>
+    <row r="131" ht="17.25" customHeight="1"/>
+    <row r="132" ht="17.25" customHeight="1"/>
+    <row r="133" ht="17.25" customHeight="1"/>
+    <row r="134" ht="17.25" customHeight="1"/>
+    <row r="135" ht="17.25" customHeight="1"/>
+    <row r="136" ht="17.25" customHeight="1"/>
+    <row r="137" ht="17.25" customHeight="1"/>
+    <row r="138" ht="17.25" customHeight="1"/>
+    <row r="139" ht="17.25" customHeight="1"/>
+    <row r="140" ht="17.25" customHeight="1"/>
+    <row r="141" ht="17.25" customHeight="1"/>
+    <row r="142" ht="17.25" customHeight="1"/>
+    <row r="143" ht="17.25" customHeight="1"/>
+    <row r="144" ht="17.25" customHeight="1"/>
+    <row r="145" ht="17.25" customHeight="1"/>
+    <row r="146" ht="17.25" customHeight="1"/>
+    <row r="147" ht="17.25" customHeight="1"/>
+    <row r="148" ht="17.25" customHeight="1"/>
+    <row r="149" ht="17.25" customHeight="1"/>
+    <row r="150" ht="17.25" customHeight="1"/>
+    <row r="151" ht="17.25" customHeight="1"/>
+    <row r="152" ht="17.25" customHeight="1"/>
+    <row r="153" ht="17.25" customHeight="1"/>
+    <row r="154" ht="17.25" customHeight="1"/>
+    <row r="155" ht="17.25" customHeight="1"/>
+    <row r="156" ht="17.25" customHeight="1"/>
+    <row r="157" ht="17.25" customHeight="1"/>
+    <row r="158" ht="17.25" customHeight="1"/>
+    <row r="159" ht="17.25" customHeight="1"/>
+    <row r="160" ht="17.25" customHeight="1"/>
+    <row r="161" ht="17.25" customHeight="1"/>
+    <row r="162" ht="17.25" customHeight="1"/>
+    <row r="163" ht="17.25" customHeight="1"/>
+    <row r="164" ht="17.25" customHeight="1"/>
+    <row r="165" ht="17.25" customHeight="1"/>
+    <row r="166" ht="17.25" customHeight="1"/>
+    <row r="167" ht="17.25" customHeight="1"/>
+    <row r="168" ht="17.25" customHeight="1"/>
+    <row r="169" ht="17.25" customHeight="1"/>
+    <row r="170" ht="17.25" customHeight="1"/>
+    <row r="171" ht="17.25" customHeight="1"/>
+    <row r="172" ht="17.25" customHeight="1"/>
+    <row r="173" ht="17.25" customHeight="1"/>
+    <row r="174" ht="17.25" customHeight="1"/>
+    <row r="175" ht="17.25" customHeight="1"/>
+    <row r="176" ht="17.25" customHeight="1"/>
+    <row r="177" ht="17.25" customHeight="1"/>
+    <row r="178" ht="17.25" customHeight="1"/>
+    <row r="179" ht="17.25" customHeight="1"/>
+    <row r="180" ht="17.25" customHeight="1"/>
+    <row r="181" ht="17.25" customHeight="1"/>
+    <row r="182" ht="17.25" customHeight="1"/>
+    <row r="183" ht="17.25" customHeight="1"/>
+    <row r="184" ht="17.25" customHeight="1"/>
+    <row r="185" ht="17.25" customHeight="1"/>
+    <row r="186" ht="17.25" customHeight="1"/>
+    <row r="187" ht="17.25" customHeight="1"/>
+    <row r="188" ht="17.25" customHeight="1"/>
+    <row r="189" ht="17.25" customHeight="1"/>
+    <row r="190" ht="17.25" customHeight="1"/>
+    <row r="191" ht="17.25" customHeight="1"/>
+    <row r="192" ht="17.25" customHeight="1"/>
+    <row r="193" ht="17.25" customHeight="1"/>
+    <row r="194" ht="17.25" customHeight="1"/>
+    <row r="195" ht="17.25" customHeight="1"/>
+    <row r="196" ht="17.25" customHeight="1"/>
+    <row r="197" ht="17.25" customHeight="1"/>
+    <row r="198" ht="17.25" customHeight="1"/>
+    <row r="199" ht="17.25" customHeight="1"/>
+    <row r="200" ht="17.25" customHeight="1"/>
+    <row r="201" ht="17.25" customHeight="1"/>
+    <row r="202" ht="17.25" customHeight="1"/>
+    <row r="203" ht="17.25" customHeight="1"/>
+    <row r="204" ht="17.25" customHeight="1"/>
+    <row r="205" ht="17.25" customHeight="1"/>
+    <row r="206" ht="17.25" customHeight="1"/>
+    <row r="207" ht="17.25" customHeight="1"/>
+    <row r="208" ht="17.25" customHeight="1"/>
+    <row r="209" ht="17.25" customHeight="1"/>
+    <row r="210" ht="17.25" customHeight="1"/>
+    <row r="211" ht="17.25" customHeight="1"/>
+    <row r="212" ht="17.25" customHeight="1"/>
+    <row r="213" ht="17.25" customHeight="1"/>
+    <row r="214" ht="17.25" customHeight="1"/>
+    <row r="215" ht="17.25" customHeight="1"/>
+    <row r="216" ht="17.25" customHeight="1"/>
+    <row r="217" ht="17.25" customHeight="1"/>
+    <row r="218" ht="17.25" customHeight="1"/>
+    <row r="219" ht="17.25" customHeight="1"/>
+    <row r="220" ht="17.25" customHeight="1"/>
+    <row r="221" ht="17.25" customHeight="1"/>
+    <row r="222" ht="17.25" customHeight="1"/>
+    <row r="223" ht="17.25" customHeight="1"/>
+    <row r="224" ht="17.25" customHeight="1"/>
+    <row r="225" ht="17.25" customHeight="1"/>
+    <row r="226" ht="17.25" customHeight="1"/>
+    <row r="227" ht="17.25" customHeight="1"/>
+    <row r="228" ht="17.25" customHeight="1"/>
+    <row r="229" ht="17.25" customHeight="1"/>
+    <row r="230" ht="17.25" customHeight="1"/>
+    <row r="231" ht="17.25" customHeight="1"/>
+    <row r="232" ht="17.25" customHeight="1"/>
+    <row r="233" ht="17.25" customHeight="1"/>
+    <row r="234" ht="17.25" customHeight="1"/>
+    <row r="235" ht="17.25" customHeight="1"/>
+    <row r="236" ht="17.25" customHeight="1"/>
+    <row r="237" ht="17.25" customHeight="1"/>
+    <row r="238" ht="17.25" customHeight="1"/>
+    <row r="239" ht="17.25" customHeight="1"/>
+    <row r="240" ht="17.25" customHeight="1"/>
+    <row r="241" ht="17.25" customHeight="1"/>
+    <row r="242" ht="17.25" customHeight="1"/>
+    <row r="243" ht="17.25" customHeight="1"/>
+    <row r="244" ht="17.25" customHeight="1"/>
+    <row r="245" ht="17.25" customHeight="1"/>
+    <row r="246" ht="17.25" customHeight="1"/>
+    <row r="247" ht="17.25" customHeight="1"/>
+    <row r="248" ht="17.25" customHeight="1"/>
+    <row r="249" ht="17.25" customHeight="1"/>
+    <row r="250" ht="17.25" customHeight="1"/>
+    <row r="251" ht="17.25" customHeight="1"/>
+    <row r="252" ht="17.25" customHeight="1"/>
+    <row r="253" ht="17.25" customHeight="1"/>
+    <row r="254" ht="17.25" customHeight="1"/>
+    <row r="255" ht="17.25" customHeight="1"/>
+    <row r="256" ht="17.25" customHeight="1"/>
+    <row r="257" ht="17.25" customHeight="1"/>
+    <row r="258" ht="17.25" customHeight="1"/>
+    <row r="259" ht="17.25" customHeight="1"/>
+    <row r="260" ht="17.25" customHeight="1"/>
+    <row r="261" ht="17.25" customHeight="1"/>
+    <row r="262" ht="17.25" customHeight="1"/>
+    <row r="263" ht="17.25" customHeight="1"/>
+    <row r="264" ht="17.25" customHeight="1"/>
+    <row r="265" ht="17.25" customHeight="1"/>
+    <row r="266" ht="17.25" customHeight="1"/>
+    <row r="267" ht="17.25" customHeight="1"/>
+    <row r="268" ht="17.25" customHeight="1"/>
+    <row r="269" ht="17.25" customHeight="1"/>
+    <row r="270" ht="17.25" customHeight="1"/>
+    <row r="271" ht="17.25" customHeight="1"/>
+    <row r="272" ht="17.25" customHeight="1"/>
+    <row r="273" ht="17.25" customHeight="1"/>
+    <row r="274" ht="17.25" customHeight="1"/>
+    <row r="275" ht="17.25" customHeight="1"/>
+    <row r="276" ht="17.25" customHeight="1"/>
+    <row r="277" ht="17.25" customHeight="1"/>
+    <row r="278" ht="17.25" customHeight="1"/>
+    <row r="279" ht="17.25" customHeight="1"/>
+    <row r="280" ht="17.25" customHeight="1"/>
+    <row r="281" ht="17.25" customHeight="1"/>
+    <row r="282" ht="17.25" customHeight="1"/>
+    <row r="283" ht="17.25" customHeight="1"/>
+    <row r="284" ht="17.25" customHeight="1"/>
+    <row r="285" ht="17.25" customHeight="1"/>
+    <row r="286" ht="17.25" customHeight="1"/>
+    <row r="287" ht="17.25" customHeight="1"/>
+    <row r="288" ht="17.25" customHeight="1"/>
+    <row r="289" ht="17.25" customHeight="1"/>
+    <row r="290" ht="17.25" customHeight="1"/>
+    <row r="291" ht="17.25" customHeight="1"/>
+    <row r="292" ht="17.25" customHeight="1"/>
+    <row r="293" ht="17.25" customHeight="1"/>
+    <row r="294" ht="17.25" customHeight="1"/>
+    <row r="295" ht="17.25" customHeight="1"/>
+    <row r="296" ht="17.25" customHeight="1"/>
+    <row r="297" ht="17.25" customHeight="1"/>
+    <row r="298" ht="17.25" customHeight="1"/>
+    <row r="299" ht="17.25" customHeight="1"/>
+    <row r="300" ht="17.25" customHeight="1"/>
+    <row r="301" ht="17.25" customHeight="1"/>
+    <row r="302" ht="17.25" customHeight="1"/>
+    <row r="303" ht="17.25" customHeight="1"/>
+    <row r="304" ht="17.25" customHeight="1"/>
+    <row r="305" ht="17.25" customHeight="1"/>
+    <row r="306" ht="17.25" customHeight="1"/>
+    <row r="307" ht="17.25" customHeight="1"/>
+    <row r="308" ht="17.25" customHeight="1"/>
+    <row r="309" ht="17.25" customHeight="1"/>
+    <row r="310" ht="17.25" customHeight="1"/>
+    <row r="311" ht="17.25" customHeight="1"/>
+    <row r="312" ht="17.25" customHeight="1"/>
+    <row r="313" ht="17.25" customHeight="1"/>
+    <row r="314" ht="17.25" customHeight="1"/>
+    <row r="315" ht="17.25" customHeight="1"/>
+    <row r="316" ht="17.25" customHeight="1"/>
+    <row r="317" ht="17.25" customHeight="1"/>
+    <row r="318" ht="17.25" customHeight="1"/>
+    <row r="319" ht="17.25" customHeight="1"/>
+    <row r="320" ht="17.25" customHeight="1"/>
+    <row r="321" ht="17.25" customHeight="1"/>
+    <row r="322" ht="17.25" customHeight="1"/>
+    <row r="323" ht="17.25" customHeight="1"/>
+    <row r="324" ht="17.25" customHeight="1"/>
+    <row r="325" ht="17.25" customHeight="1"/>
+    <row r="326" ht="17.25" customHeight="1"/>
+    <row r="327" ht="17.25" customHeight="1"/>
+    <row r="328" ht="17.25" customHeight="1"/>
+    <row r="329" ht="17.25" customHeight="1"/>
+    <row r="330" ht="17.25" customHeight="1"/>
+    <row r="331" ht="17.25" customHeight="1"/>
+    <row r="332" ht="17.25" customHeight="1"/>
+    <row r="333" ht="17.25" customHeight="1"/>
+    <row r="334" ht="17.25" customHeight="1"/>
+    <row r="335" ht="17.25" customHeight="1"/>
+    <row r="336" ht="17.25" customHeight="1"/>
+    <row r="337" ht="17.25" customHeight="1"/>
+    <row r="338" ht="17.25" customHeight="1"/>
+    <row r="339" ht="17.25" customHeight="1"/>
+    <row r="340" ht="17.25" customHeight="1"/>
+    <row r="341" ht="17.25" customHeight="1"/>
+    <row r="342" ht="17.25" customHeight="1"/>
+    <row r="343" ht="17.25" customHeight="1"/>
+    <row r="344" ht="17.25" customHeight="1"/>
+    <row r="345" ht="17.25" customHeight="1"/>
+    <row r="346" ht="17.25" customHeight="1"/>
+    <row r="347" ht="17.25" customHeight="1"/>
+    <row r="348" ht="17.25" customHeight="1"/>
+    <row r="349" ht="17.25" customHeight="1"/>
+    <row r="350" ht="17.25" customHeight="1"/>
+    <row r="351" ht="17.25" customHeight="1"/>
+    <row r="352" ht="17.25" customHeight="1"/>
+    <row r="353" ht="17.25" customHeight="1"/>
+    <row r="354" ht="17.25" customHeight="1"/>
+    <row r="355" ht="17.25" customHeight="1"/>
+    <row r="356" ht="17.25" customHeight="1"/>
+    <row r="357" ht="17.25" customHeight="1"/>
+    <row r="358" ht="17.25" customHeight="1"/>
+    <row r="359" ht="17.25" customHeight="1"/>
+    <row r="360" ht="17.25" customHeight="1"/>
+    <row r="361" ht="17.25" customHeight="1"/>
+    <row r="362" ht="17.25" customHeight="1"/>
+    <row r="363" ht="17.25" customHeight="1"/>
+    <row r="364" ht="17.25" customHeight="1"/>
+    <row r="365" ht="17.25" customHeight="1"/>
+    <row r="366" ht="17.25" customHeight="1"/>
+    <row r="367" ht="17.25" customHeight="1"/>
+    <row r="368" ht="17.25" customHeight="1"/>
+    <row r="369" ht="17.25" customHeight="1"/>
+    <row r="370" ht="17.25" customHeight="1"/>
+    <row r="371" ht="17.25" customHeight="1"/>
+    <row r="372" ht="17.25" customHeight="1"/>
+    <row r="373" ht="17.25" customHeight="1"/>
+    <row r="374" ht="17.25" customHeight="1"/>
+    <row r="375" ht="17.25" customHeight="1"/>
+    <row r="376" ht="17.25" customHeight="1"/>
+    <row r="377" ht="17.25" customHeight="1"/>
+    <row r="378" ht="17.25" customHeight="1"/>
+    <row r="379" ht="17.25" customHeight="1"/>
+    <row r="380" ht="17.25" customHeight="1"/>
+    <row r="381" ht="17.25" customHeight="1"/>
+    <row r="382" ht="17.25" customHeight="1"/>
+    <row r="383" ht="17.25" customHeight="1"/>
+    <row r="384" ht="17.25" customHeight="1"/>
+    <row r="385" ht="17.25" customHeight="1"/>
+    <row r="386" ht="17.25" customHeight="1"/>
+    <row r="387" ht="17.25" customHeight="1"/>
+    <row r="388" ht="17.25" customHeight="1"/>
+    <row r="389" ht="17.25" customHeight="1"/>
+    <row r="390" ht="17.25" customHeight="1"/>
+    <row r="391" ht="17.25" customHeight="1"/>
+    <row r="392" ht="17.25" customHeight="1"/>
+    <row r="393" ht="17.25" customHeight="1"/>
+    <row r="394" ht="17.25" customHeight="1"/>
+    <row r="395" ht="17.25" customHeight="1"/>
+    <row r="396" ht="17.25" customHeight="1"/>
+    <row r="397" ht="17.25" customHeight="1"/>
+    <row r="398" ht="17.25" customHeight="1"/>
+    <row r="399" ht="17.25" customHeight="1"/>
+    <row r="400" ht="17.25" customHeight="1"/>
+    <row r="401" ht="17.25" customHeight="1"/>
+    <row r="402" ht="17.25" customHeight="1"/>
+    <row r="403" ht="17.25" customHeight="1"/>
+    <row r="404" ht="17.25" customHeight="1"/>
+    <row r="405" ht="17.25" customHeight="1"/>
+    <row r="406" ht="17.25" customHeight="1"/>
+    <row r="407" ht="17.25" customHeight="1"/>
+    <row r="408" ht="17.25" customHeight="1"/>
+    <row r="409" ht="17.25" customHeight="1"/>
+    <row r="410" ht="17.25" customHeight="1"/>
+    <row r="411" ht="17.25" customHeight="1"/>
+    <row r="412" ht="17.25" customHeight="1"/>
+    <row r="413" ht="17.25" customHeight="1"/>
+    <row r="414" ht="17.25" customHeight="1"/>
+    <row r="415" ht="17.25" customHeight="1"/>
+    <row r="416" ht="17.25" customHeight="1"/>
+    <row r="417" ht="17.25" customHeight="1"/>
+    <row r="418" ht="17.25" customHeight="1"/>
+    <row r="419" ht="17.25" customHeight="1"/>
+    <row r="420" ht="17.25" customHeight="1"/>
+    <row r="421" ht="17.25" customHeight="1"/>
+    <row r="422" ht="17.25" customHeight="1"/>
+    <row r="423" ht="17.25" customHeight="1"/>
+    <row r="424" ht="17.25" customHeight="1"/>
+    <row r="425" ht="17.25" customHeight="1"/>
+    <row r="426" ht="17.25" customHeight="1"/>
+    <row r="427" ht="17.25" customHeight="1"/>
+    <row r="428" ht="17.25" customHeight="1"/>
+    <row r="429" ht="17.25" customHeight="1"/>
+    <row r="430" ht="17.25" customHeight="1"/>
+    <row r="431" ht="17.25" customHeight="1"/>
+    <row r="432" ht="17.25" customHeight="1"/>
+    <row r="433" ht="17.25" customHeight="1"/>
+    <row r="434" ht="17.25" customHeight="1"/>
+    <row r="435" ht="17.25" customHeight="1"/>
+    <row r="436" ht="17.25" customHeight="1"/>
+    <row r="437" ht="17.25" customHeight="1"/>
+    <row r="438" ht="17.25" customHeight="1"/>
+    <row r="439" ht="17.25" customHeight="1"/>
+    <row r="440" ht="17.25" customHeight="1"/>
+    <row r="441" ht="17.25" customHeight="1"/>
+    <row r="442" ht="17.25" customHeight="1"/>
+    <row r="443" ht="17.25" customHeight="1"/>
+    <row r="444" ht="17.25" customHeight="1"/>
+    <row r="445" ht="17.25" customHeight="1"/>
+    <row r="446" ht="17.25" customHeight="1"/>
+    <row r="447" ht="17.25" customHeight="1"/>
+    <row r="448" ht="17.25" customHeight="1"/>
+    <row r="449" ht="17.25" customHeight="1"/>
+    <row r="450" ht="17.25" customHeight="1"/>
+    <row r="451" ht="17.25" customHeight="1"/>
+    <row r="452" ht="17.25" customHeight="1"/>
+    <row r="453" ht="17.25" customHeight="1"/>
+    <row r="454" ht="17.25" customHeight="1"/>
+    <row r="455" ht="17.25" customHeight="1"/>
+    <row r="456" ht="17.25" customHeight="1"/>
+    <row r="457" ht="17.25" customHeight="1"/>
+    <row r="458" ht="17.25" customHeight="1"/>
+    <row r="459" ht="17.25" customHeight="1"/>
+    <row r="460" ht="17.25" customHeight="1"/>
+    <row r="461" ht="17.25" customHeight="1"/>
+    <row r="462" ht="17.25" customHeight="1"/>
+    <row r="463" ht="17.25" customHeight="1"/>
+    <row r="464" ht="17.25" customHeight="1"/>
+    <row r="465" ht="17.25" customHeight="1"/>
+    <row r="466" ht="17.25" customHeight="1"/>
+    <row r="467" ht="17.25" customHeight="1"/>
+    <row r="468" ht="17.25" customHeight="1"/>
+    <row r="469" ht="17.25" customHeight="1"/>
+    <row r="470" ht="17.25" customHeight="1"/>
+    <row r="471" ht="17.25" customHeight="1"/>
+    <row r="472" ht="17.25" customHeight="1"/>
+    <row r="473" ht="17.25" customHeight="1"/>
+    <row r="474" ht="17.25" customHeight="1"/>
+    <row r="475" ht="17.25" customHeight="1"/>
+    <row r="476" ht="17.25" customHeight="1"/>
+    <row r="477" ht="17.25" customHeight="1"/>
+    <row r="478" ht="17.25" customHeight="1"/>
+    <row r="479" ht="17.25" customHeight="1"/>
+    <row r="480" ht="17.25" customHeight="1"/>
+    <row r="481" ht="17.25" customHeight="1"/>
+    <row r="482" ht="17.25" customHeight="1"/>
+    <row r="483" ht="17.25" customHeight="1"/>
+    <row r="484" ht="17.25" customHeight="1"/>
+    <row r="485" ht="17.25" customHeight="1"/>
+    <row r="486" ht="17.25" customHeight="1"/>
+    <row r="487" ht="17.25" customHeight="1"/>
+    <row r="488" ht="17.25" customHeight="1"/>
+    <row r="489" ht="17.25" customHeight="1"/>
+    <row r="490" ht="17.25" customHeight="1"/>
+    <row r="491" ht="17.25" customHeight="1"/>
+    <row r="492" ht="17.25" customHeight="1"/>
+    <row r="493" ht="17.25" customHeight="1"/>
+    <row r="494" ht="17.25" customHeight="1"/>
+    <row r="495" ht="17.25" customHeight="1"/>
+    <row r="496" ht="17.25" customHeight="1"/>
+    <row r="497" ht="17.25" customHeight="1"/>
+    <row r="498" ht="17.25" customHeight="1"/>
+    <row r="499" ht="17.25" customHeight="1"/>
+    <row r="500" ht="17.25" customHeight="1"/>
+    <row r="501" ht="17.25" customHeight="1"/>
+    <row r="502" ht="17.25" customHeight="1"/>
+    <row r="503" ht="17.25" customHeight="1"/>
+    <row r="504" ht="17.25" customHeight="1"/>
+    <row r="505" ht="17.25" customHeight="1"/>
+    <row r="506" ht="17.25" customHeight="1"/>
+    <row r="507" ht="17.25" customHeight="1"/>
+    <row r="508" ht="17.25" customHeight="1"/>
+    <row r="509" ht="17.25" customHeight="1"/>
+    <row r="510" ht="17.25" customHeight="1"/>
+    <row r="511" ht="17.25" customHeight="1"/>
+    <row r="512" ht="17.25" customHeight="1"/>
+    <row r="513" ht="17.25" customHeight="1"/>
+    <row r="514" ht="17.25" customHeight="1"/>
+    <row r="515" ht="17.25" customHeight="1"/>
+    <row r="516" ht="17.25" customHeight="1"/>
+    <row r="517" ht="17.25" customHeight="1"/>
+    <row r="518" ht="17.25" customHeight="1"/>
+    <row r="519" ht="17.25" customHeight="1"/>
+    <row r="520" ht="17.25" customHeight="1"/>
+    <row r="521" ht="17.25" customHeight="1"/>
+    <row r="522" ht="17.25" customHeight="1"/>
+    <row r="523" ht="17.25" customHeight="1"/>
+    <row r="524" ht="17.25" customHeight="1"/>
+    <row r="525" ht="17.25" customHeight="1"/>
+    <row r="526" ht="17.25" customHeight="1"/>
+    <row r="527" ht="17.25" customHeight="1"/>
+    <row r="528" ht="17.25" customHeight="1"/>
+    <row r="529" ht="17.25" customHeight="1"/>
+    <row r="530" ht="17.25" customHeight="1"/>
+    <row r="531" ht="17.25" customHeight="1"/>
+    <row r="532" ht="17.25" customHeight="1"/>
+    <row r="533" ht="17.25" customHeight="1"/>
+    <row r="534" ht="17.25" customHeight="1"/>
+    <row r="535" ht="17.25" customHeight="1"/>
+    <row r="536" ht="17.25" customHeight="1"/>
+    <row r="537" ht="17.25" customHeight="1"/>
+    <row r="538" ht="17.25" customHeight="1"/>
+    <row r="539" ht="17.25" customHeight="1"/>
+    <row r="540" ht="17.25" customHeight="1"/>
+    <row r="541" ht="17.25" customHeight="1"/>
+    <row r="542" ht="17.25" customHeight="1"/>
+    <row r="543" ht="17.25" customHeight="1"/>
+    <row r="544" ht="17.25" customHeight="1"/>
+    <row r="545" ht="17.25" customHeight="1"/>
+    <row r="546" ht="17.25" customHeight="1"/>
+    <row r="547" ht="17.25" customHeight="1"/>
+    <row r="548" ht="17.25" customHeight="1"/>
+    <row r="549" ht="17.25" customHeight="1"/>
+    <row r="550" ht="17.25" customHeight="1"/>
+    <row r="551" ht="17.25" customHeight="1"/>
+    <row r="552" ht="17.25" customHeight="1"/>
+    <row r="553" ht="17.25" customHeight="1"/>
+    <row r="554" ht="17.25" customHeight="1"/>
+    <row r="555" ht="17.25" customHeight="1"/>
+    <row r="556" ht="17.25" customHeight="1"/>
+    <row r="557" ht="17.25" customHeight="1"/>
+    <row r="558" ht="17.25" customHeight="1"/>
+    <row r="559" ht="17.25" customHeight="1"/>
+    <row r="560" ht="17.25" customHeight="1"/>
+    <row r="561" ht="17.25" customHeight="1"/>
+    <row r="562" ht="17.25" customHeight="1"/>
+    <row r="563" ht="17.25" customHeight="1"/>
+    <row r="564" ht="17.25" customHeight="1"/>
+    <row r="565" ht="17.25" customHeight="1"/>
+    <row r="566" ht="17.25" customHeight="1"/>
+    <row r="567" ht="17.25" customHeight="1"/>
+    <row r="568" ht="17.25" customHeight="1"/>
+    <row r="569" ht="17.25" customHeight="1"/>
+    <row r="570" ht="17.25" customHeight="1"/>
+    <row r="571" ht="17.25" customHeight="1"/>
+    <row r="572" ht="17.25" customHeight="1"/>
+    <row r="573" ht="17.25" customHeight="1"/>
+    <row r="574" ht="17.25" customHeight="1"/>
+    <row r="575" ht="17.25" customHeight="1"/>
+    <row r="576" ht="17.25" customHeight="1"/>
+    <row r="577" ht="17.25" customHeight="1"/>
+    <row r="578" ht="17.25" customHeight="1"/>
+    <row r="579" ht="17.25" customHeight="1"/>
+    <row r="580" ht="17.25" customHeight="1"/>
+    <row r="581" ht="17.25" customHeight="1"/>
+    <row r="582" ht="17.25" customHeight="1"/>
+    <row r="583" ht="17.25" customHeight="1"/>
+    <row r="584" ht="17.25" customHeight="1"/>
+    <row r="585" ht="17.25" customHeight="1"/>
+    <row r="586" ht="17.25" customHeight="1"/>
+    <row r="587" ht="17.25" customHeight="1"/>
+    <row r="588" ht="17.25" customHeight="1"/>
+    <row r="589" ht="17.25" customHeight="1"/>
+    <row r="590" ht="17.25" customHeight="1"/>
+    <row r="591" ht="17.25" customHeight="1"/>
+    <row r="592" ht="17.25" customHeight="1"/>
+    <row r="593" ht="17.25" customHeight="1"/>
+    <row r="594" ht="17.25" customHeight="1"/>
+    <row r="595" ht="17.25" customHeight="1"/>
+    <row r="596" ht="17.25" customHeight="1"/>
+    <row r="597" ht="17.25" customHeight="1"/>
+    <row r="598" ht="17.25" customHeight="1"/>
+    <row r="599" ht="17.25" customHeight="1"/>
+    <row r="600" ht="17.25" customHeight="1"/>
+    <row r="601" ht="17.25" customHeight="1"/>
+    <row r="602" ht="17.25" customHeight="1"/>
+    <row r="603" ht="17.25" customHeight="1"/>
+    <row r="604" ht="17.25" customHeight="1"/>
+    <row r="605" ht="17.25" customHeight="1"/>
+    <row r="606" ht="17.25" customHeight="1"/>
+    <row r="607" ht="17.25" customHeight="1"/>
+    <row r="608" ht="17.25" customHeight="1"/>
+    <row r="609" ht="17.25" customHeight="1"/>
+    <row r="610" ht="17.25" customHeight="1"/>
+    <row r="611" ht="17.25" customHeight="1"/>
+    <row r="612" ht="17.25" customHeight="1"/>
+    <row r="613" ht="17.25" customHeight="1"/>
+    <row r="614" ht="17.25" customHeight="1"/>
+    <row r="615" ht="17.25" customHeight="1"/>
+    <row r="616" ht="17.25" customHeight="1"/>
+    <row r="617" ht="17.25" customHeight="1"/>
+    <row r="618" ht="17.25" customHeight="1"/>
+    <row r="619" ht="17.25" customHeight="1"/>
+    <row r="620" ht="17.25" customHeight="1"/>
+    <row r="621" ht="17.25" customHeight="1"/>
+    <row r="622" ht="17.25" customHeight="1"/>
+    <row r="623" ht="17.25" customHeight="1"/>
+    <row r="624" ht="17.25" customHeight="1"/>
+    <row r="625" ht="17.25" customHeight="1"/>
+    <row r="626" ht="17.25" customHeight="1"/>
+    <row r="627" ht="17.25" customHeight="1"/>
+    <row r="628" ht="17.25" customHeight="1"/>
+    <row r="629" ht="17.25" customHeight="1"/>
+    <row r="630" ht="17.25" customHeight="1"/>
+    <row r="631" ht="17.25" customHeight="1"/>
+    <row r="632" ht="17.25" customHeight="1"/>
+    <row r="633" ht="17.25" customHeight="1"/>
+    <row r="634" ht="17.25" customHeight="1"/>
+    <row r="635" ht="17.25" customHeight="1"/>
+    <row r="636" ht="17.25" customHeight="1"/>
+    <row r="637" ht="17.25" customHeight="1"/>
+    <row r="638" ht="17.25" customHeight="1"/>
+    <row r="639" ht="17.25" customHeight="1"/>
+    <row r="640" ht="17.25" customHeight="1"/>
+    <row r="641" ht="17.25" customHeight="1"/>
+    <row r="642" ht="17.25" customHeight="1"/>
+    <row r="643" ht="17.25" customHeight="1"/>
+    <row r="644" ht="17.25" customHeight="1"/>
+    <row r="645" ht="17.25" customHeight="1"/>
+    <row r="646" ht="17.25" customHeight="1"/>
+    <row r="647" ht="17.25" customHeight="1"/>
+    <row r="648" ht="17.25" customHeight="1"/>
+    <row r="649" ht="17.25" customHeight="1"/>
+    <row r="650" ht="17.25" customHeight="1"/>
+    <row r="651" ht="17.25" customHeight="1"/>
+    <row r="652" ht="17.25" customHeight="1"/>
+    <row r="653" ht="17.25" customHeight="1"/>
+    <row r="654" ht="17.25" customHeight="1"/>
+    <row r="655" ht="17.25" customHeight="1"/>
+    <row r="656" ht="17.25" customHeight="1"/>
+    <row r="657" ht="17.25" customHeight="1"/>
+    <row r="658" ht="17.25" customHeight="1"/>
+    <row r="659" ht="17.25" customHeight="1"/>
+    <row r="660" ht="17.25" customHeight="1"/>
+    <row r="661" ht="17.25" customHeight="1"/>
+    <row r="662" ht="17.25" customHeight="1"/>
+    <row r="663" ht="17.25" customHeight="1"/>
+    <row r="664" ht="17.25" customHeight="1"/>
+    <row r="665" ht="17.25" customHeight="1"/>
+    <row r="666" ht="17.25" customHeight="1"/>
+    <row r="667" ht="17.25" customHeight="1"/>
+    <row r="668" ht="17.25" customHeight="1"/>
+    <row r="669" ht="17.25" customHeight="1"/>
+    <row r="670" ht="17.25" customHeight="1"/>
+    <row r="671" ht="17.25" customHeight="1"/>
+    <row r="672" ht="17.25" customHeight="1"/>
+    <row r="673" ht="17.25" customHeight="1"/>
+    <row r="674" ht="17.25" customHeight="1"/>
+    <row r="675" ht="17.25" customHeight="1"/>
+    <row r="676" ht="17.25" customHeight="1"/>
+    <row r="677" ht="17.25" customHeight="1"/>
+    <row r="678" ht="17.25" customHeight="1"/>
+    <row r="679" ht="17.25" customHeight="1"/>
+    <row r="680" ht="17.25" customHeight="1"/>
+    <row r="681" ht="17.25" customHeight="1"/>
+    <row r="682" ht="17.25" customHeight="1"/>
+    <row r="683" ht="17.25" customHeight="1"/>
+    <row r="684" ht="17.25" customHeight="1"/>
+    <row r="685" ht="17.25" customHeight="1"/>
+    <row r="686" ht="17.25" customHeight="1"/>
+    <row r="687" ht="17.25" customHeight="1"/>
+    <row r="688" ht="17.25" customHeight="1"/>
+    <row r="689" ht="17.25" customHeight="1"/>
+    <row r="690" ht="17.25" customHeight="1"/>
+    <row r="691" ht="17.25" customHeight="1"/>
+    <row r="692" ht="17.25" customHeight="1"/>
+    <row r="693" ht="17.25" customHeight="1"/>
+    <row r="694" ht="17.25" customHeight="1"/>
+    <row r="695" ht="17.25" customHeight="1"/>
+    <row r="696" ht="17.25" customHeight="1"/>
+    <row r="697" ht="17.25" customHeight="1"/>
+    <row r="698" ht="17.25" customHeight="1"/>
+    <row r="699" ht="17.25" customHeight="1"/>
+    <row r="700" ht="17.25" customHeight="1"/>
+    <row r="701" ht="17.25" customHeight="1"/>
+    <row r="702" ht="17.25" customHeight="1"/>
+    <row r="703" ht="17.25" customHeight="1"/>
+    <row r="704" ht="17.25" customHeight="1"/>
+    <row r="705" ht="17.25" customHeight="1"/>
+    <row r="706" ht="17.25" customHeight="1"/>
+    <row r="707" ht="17.25" customHeight="1"/>
+    <row r="708" ht="17.25" customHeight="1"/>
+    <row r="709" ht="17.25" customHeight="1"/>
+    <row r="710" ht="17.25" customHeight="1"/>
+    <row r="711" ht="17.25" customHeight="1"/>
+    <row r="712" ht="17.25" customHeight="1"/>
+    <row r="713" ht="17.25" customHeight="1"/>
+    <row r="714" ht="17.25" customHeight="1"/>
+    <row r="715" ht="17.25" customHeight="1"/>
+    <row r="716" ht="17.25" customHeight="1"/>
+    <row r="717" ht="17.25" customHeight="1"/>
+    <row r="718" ht="17.25" customHeight="1"/>
+    <row r="719" ht="17.25" customHeight="1"/>
+    <row r="720" ht="17.25" customHeight="1"/>
+    <row r="721" ht="17.25" customHeight="1"/>
+    <row r="722" ht="17.25" customHeight="1"/>
+    <row r="723" ht="17.25" customHeight="1"/>
+    <row r="724" ht="17.25" customHeight="1"/>
+    <row r="725" ht="17.25" customHeight="1"/>
+    <row r="726" ht="17.25" customHeight="1"/>
+    <row r="727" ht="17.25" customHeight="1"/>
+    <row r="728" ht="17.25" customHeight="1"/>
+    <row r="729" ht="17.25" customHeight="1"/>
+    <row r="730" ht="17.25" customHeight="1"/>
+    <row r="731" ht="17.25" customHeight="1"/>
+    <row r="732" ht="17.25" customHeight="1"/>
+    <row r="733" ht="17.25" customHeight="1"/>
+    <row r="734" ht="17.25" customHeight="1"/>
+    <row r="735" ht="17.25" customHeight="1"/>
+    <row r="736" ht="17.25" customHeight="1"/>
+    <row r="737" ht="17.25" customHeight="1"/>
+    <row r="738" ht="17.25" customHeight="1"/>
+    <row r="739" ht="17.25" customHeight="1"/>
+    <row r="740" ht="17.25" customHeight="1"/>
+    <row r="741" ht="17.25" customHeight="1"/>
+    <row r="742" ht="17.25" customHeight="1"/>
+    <row r="743" ht="17.25" customHeight="1"/>
+    <row r="744" ht="17.25" customHeight="1"/>
+    <row r="745" ht="17.25" customHeight="1"/>
+    <row r="746" ht="17.25" customHeight="1"/>
+    <row r="747" ht="17.25" customHeight="1"/>
+    <row r="748" ht="17.25" customHeight="1"/>
+    <row r="749" ht="17.25" customHeight="1"/>
+    <row r="750" ht="17.25" customHeight="1"/>
+    <row r="751" ht="17.25" customHeight="1"/>
+    <row r="752" ht="17.25" customHeight="1"/>
+    <row r="753" ht="17.25" customHeight="1"/>
+    <row r="754" ht="17.25" customHeight="1"/>
+    <row r="755" ht="17.25" customHeight="1"/>
+    <row r="756" ht="17.25" customHeight="1"/>
+    <row r="757" ht="17.25" customHeight="1"/>
+    <row r="758" ht="17.25" customHeight="1"/>
+    <row r="759" ht="17.25" customHeight="1"/>
+    <row r="760" ht="17.25" customHeight="1"/>
+    <row r="761" ht="17.25" customHeight="1"/>
+    <row r="762" ht="17.25" customHeight="1"/>
+    <row r="763" ht="17.25" customHeight="1"/>
+    <row r="764" ht="17.25" customHeight="1"/>
+    <row r="765" ht="17.25" customHeight="1"/>
+    <row r="766" ht="17.25" customHeight="1"/>
+    <row r="767" ht="17.25" customHeight="1"/>
+    <row r="768" ht="17.25" customHeight="1"/>
+    <row r="769" ht="17.25" customHeight="1"/>
+    <row r="770" ht="17.25" customHeight="1"/>
+    <row r="771" ht="17.25" customHeight="1"/>
+    <row r="772" ht="17.25" customHeight="1"/>
+    <row r="773" ht="17.25" customHeight="1"/>
+    <row r="774" ht="17.25" customHeight="1"/>
+    <row r="775" ht="17.25" customHeight="1"/>
+    <row r="776" ht="17.25" customHeight="1"/>
+    <row r="777" ht="17.25" customHeight="1"/>
+    <row r="778" ht="17.25" customHeight="1"/>
+    <row r="779" ht="17.25" customHeight="1"/>
+    <row r="780" ht="17.25" customHeight="1"/>
+    <row r="781" ht="17.25" customHeight="1"/>
+    <row r="782" ht="17.25" customHeight="1"/>
+    <row r="783" ht="17.25" customHeight="1"/>
+    <row r="784" ht="17.25" customHeight="1"/>
+    <row r="785" ht="17.25" customHeight="1"/>
+    <row r="786" ht="17.25" customHeight="1"/>
+    <row r="787" ht="17.25" customHeight="1"/>
+    <row r="788" ht="17.25" customHeight="1"/>
+    <row r="789" ht="17.25" customHeight="1"/>
+    <row r="790" ht="17.25" customHeight="1"/>
+    <row r="791" ht="17.25" customHeight="1"/>
+    <row r="792" ht="17.25" customHeight="1"/>
+    <row r="793" ht="17.25" customHeight="1"/>
+    <row r="794" ht="17.25" customHeight="1"/>
+    <row r="795" ht="17.25" customHeight="1"/>
+    <row r="796" ht="17.25" customHeight="1"/>
+    <row r="797" ht="17.25" customHeight="1"/>
+    <row r="798" ht="17.25" customHeight="1"/>
+    <row r="799" ht="17.25" customHeight="1"/>
+    <row r="800" ht="17.25" customHeight="1"/>
+    <row r="801" ht="17.25" customHeight="1"/>
+    <row r="802" ht="17.25" customHeight="1"/>
+    <row r="803" ht="17.25" customHeight="1"/>
+    <row r="804" ht="17.25" customHeight="1"/>
+    <row r="805" ht="17.25" customHeight="1"/>
+    <row r="806" ht="17.25" customHeight="1"/>
+    <row r="807" ht="17.25" customHeight="1"/>
+    <row r="808" ht="17.25" customHeight="1"/>
+    <row r="809" ht="17.25" customHeight="1"/>
+    <row r="810" ht="17.25" customHeight="1"/>
+    <row r="811" ht="17.25" customHeight="1"/>
+    <row r="812" ht="17.25" customHeight="1"/>
+    <row r="813" ht="17.25" customHeight="1"/>
+    <row r="814" ht="17.25" customHeight="1"/>
+    <row r="815" ht="17.25" customHeight="1"/>
+    <row r="816" ht="17.25" customHeight="1"/>
+    <row r="817" ht="17.25" customHeight="1"/>
+    <row r="818" ht="17.25" customHeight="1"/>
+    <row r="819" ht="17.25" customHeight="1"/>
+    <row r="820" ht="17.25" customHeight="1"/>
+    <row r="821" ht="17.25" customHeight="1"/>
+    <row r="822" ht="17.25" customHeight="1"/>
+    <row r="823" ht="17.25" customHeight="1"/>
+    <row r="824" ht="17.25" customHeight="1"/>
+    <row r="825" ht="17.25" customHeight="1"/>
+    <row r="826" ht="17.25" customHeight="1"/>
+    <row r="827" ht="17.25" customHeight="1"/>
+    <row r="828" ht="17.25" customHeight="1"/>
+    <row r="829" ht="17.25" customHeight="1"/>
+    <row r="830" ht="17.25" customHeight="1"/>
+    <row r="831" ht="17.25" customHeight="1"/>
+    <row r="832" ht="17.25" customHeight="1"/>
+    <row r="833" ht="17.25" customHeight="1"/>
+    <row r="834" ht="17.25" customHeight="1"/>
+    <row r="835" ht="17.25" customHeight="1"/>
+    <row r="836" ht="17.25" customHeight="1"/>
+    <row r="837" ht="17.25" customHeight="1"/>
+    <row r="838" ht="17.25" customHeight="1"/>
+    <row r="839" ht="17.25" customHeight="1"/>
+    <row r="840" ht="17.25" customHeight="1"/>
+    <row r="841" ht="17.25" customHeight="1"/>
+    <row r="842" ht="17.25" customHeight="1"/>
+    <row r="843" ht="17.25" customHeight="1"/>
+    <row r="844" ht="17.25" customHeight="1"/>
+    <row r="845" ht="17.25" customHeight="1"/>
+    <row r="846" ht="17.25" customHeight="1"/>
+    <row r="847" ht="17.25" customHeight="1"/>
+    <row r="848" ht="17.25" customHeight="1"/>
+    <row r="849" ht="17.25" customHeight="1"/>
+    <row r="850" ht="17.25" customHeight="1"/>
+    <row r="851" ht="17.25" customHeight="1"/>
+    <row r="852" ht="17.25" customHeight="1"/>
+    <row r="853" ht="17.25" customHeight="1"/>
+    <row r="854" ht="17.25" customHeight="1"/>
+    <row r="855" ht="17.25" customHeight="1"/>
+    <row r="856" ht="17.25" customHeight="1"/>
+    <row r="857" ht="17.25" customHeight="1"/>
+    <row r="858" ht="17.25" customHeight="1"/>
+    <row r="859" ht="17.25" customHeight="1"/>
+    <row r="860" ht="17.25" customHeight="1"/>
+    <row r="861" ht="17.25" customHeight="1"/>
+    <row r="862" ht="17.25" customHeight="1"/>
+    <row r="863" ht="17.25" customHeight="1"/>
+    <row r="864" ht="17.25" customHeight="1"/>
+    <row r="865" ht="17.25" customHeight="1"/>
+    <row r="866" ht="17.25" customHeight="1"/>
+    <row r="867" ht="17.25" customHeight="1"/>
+    <row r="868" ht="17.25" customHeight="1"/>
+    <row r="869" ht="17.25" customHeight="1"/>
+    <row r="870" ht="17.25" customHeight="1"/>
+    <row r="871" ht="17.25" customHeight="1"/>
+    <row r="872" ht="17.25" customHeight="1"/>
+    <row r="873" ht="17.25" customHeight="1"/>
+    <row r="874" ht="17.25" customHeight="1"/>
+    <row r="875" ht="17.25" customHeight="1"/>
+    <row r="876" ht="17.25" customHeight="1"/>
+    <row r="877" ht="17.25" customHeight="1"/>
+    <row r="878" ht="17.25" customHeight="1"/>
+    <row r="879" ht="17.25" customHeight="1"/>
+    <row r="880" ht="17.25" customHeight="1"/>
+    <row r="881" ht="17.25" customHeight="1"/>
+    <row r="882" ht="17.25" customHeight="1"/>
+    <row r="883" ht="17.25" customHeight="1"/>
+    <row r="884" ht="17.25" customHeight="1"/>
+    <row r="885" ht="17.25" customHeight="1"/>
+    <row r="886" ht="17.25" customHeight="1"/>
+    <row r="887" ht="17.25" customHeight="1"/>
+    <row r="888" ht="17.25" customHeight="1"/>
+    <row r="889" ht="17.25" customHeight="1"/>
+    <row r="890" ht="17.25" customHeight="1"/>
+    <row r="891" ht="17.25" customHeight="1"/>
+    <row r="892" ht="17.25" customHeight="1"/>
+    <row r="893" ht="17.25" customHeight="1"/>
+    <row r="894" ht="17.25" customHeight="1"/>
+    <row r="895" ht="17.25" customHeight="1"/>
+    <row r="896" ht="17.25" customHeight="1"/>
+    <row r="897" ht="17.25" customHeight="1"/>
+    <row r="898" ht="17.25" customHeight="1"/>
+    <row r="899" ht="17.25" customHeight="1"/>
+    <row r="900" ht="17.25" customHeight="1"/>
+    <row r="901" ht="17.25" customHeight="1"/>
+    <row r="902" ht="17.25" customHeight="1"/>
+    <row r="903" ht="17.25" customHeight="1"/>
+    <row r="904" ht="17.25" customHeight="1"/>
+    <row r="905" ht="17.25" customHeight="1"/>
+    <row r="906" ht="17.25" customHeight="1"/>
+    <row r="907" ht="17.25" customHeight="1"/>
+    <row r="908" ht="17.25" customHeight="1"/>
+    <row r="909" ht="17.25" customHeight="1"/>
+    <row r="910" ht="17.25" customHeight="1"/>
+    <row r="911" ht="17.25" customHeight="1"/>
+    <row r="912" ht="17.25" customHeight="1"/>
+    <row r="913" ht="17.25" customHeight="1"/>
+    <row r="914" ht="17.25" customHeight="1"/>
+    <row r="915" ht="17.25" customHeight="1"/>
+    <row r="916" ht="17.25" customHeight="1"/>
+    <row r="917" ht="17.25" customHeight="1"/>
+    <row r="918" ht="17.25" customHeight="1"/>
+    <row r="919" ht="17.25" customHeight="1"/>
+    <row r="920" ht="17.25" customHeight="1"/>
+    <row r="921" ht="17.25" customHeight="1"/>
+    <row r="922" ht="17.25" customHeight="1"/>
+    <row r="923" ht="17.25" customHeight="1"/>
+    <row r="924" ht="17.25" customHeight="1"/>
+    <row r="925" ht="17.25" customHeight="1"/>
+    <row r="926" ht="17.25" customHeight="1"/>
+    <row r="927" ht="17.25" customHeight="1"/>
+    <row r="928" ht="17.25" customHeight="1"/>
+    <row r="929" ht="17.25" customHeight="1"/>
+    <row r="930" ht="17.25" customHeight="1"/>
+    <row r="931" ht="17.25" customHeight="1"/>
+    <row r="932" ht="17.25" customHeight="1"/>
+    <row r="933" ht="17.25" customHeight="1"/>
+    <row r="934" ht="17.25" customHeight="1"/>
+    <row r="935" ht="17.25" customHeight="1"/>
+    <row r="936" ht="17.25" customHeight="1"/>
+    <row r="937" ht="17.25" customHeight="1"/>
+    <row r="938" ht="17.25" customHeight="1"/>
+    <row r="939" ht="17.25" customHeight="1"/>
+    <row r="940" ht="17.25" customHeight="1"/>
+    <row r="941" ht="17.25" customHeight="1"/>
+    <row r="942" ht="17.25" customHeight="1"/>
+    <row r="943" ht="17.25" customHeight="1"/>
+    <row r="944" ht="17.25" customHeight="1"/>
+    <row r="945" ht="17.25" customHeight="1"/>
+    <row r="946" ht="17.25" customHeight="1"/>
+    <row r="947" ht="17.25" customHeight="1"/>
+    <row r="948" ht="17.25" customHeight="1"/>
+    <row r="949" ht="17.25" customHeight="1"/>
+    <row r="950" ht="17.25" customHeight="1"/>
+    <row r="951" ht="17.25" customHeight="1"/>
+    <row r="952" ht="17.25" customHeight="1"/>
+    <row r="953" ht="17.25" customHeight="1"/>
+    <row r="954" ht="17.25" customHeight="1"/>
+    <row r="955" ht="17.25" customHeight="1"/>
+    <row r="956" ht="17.25" customHeight="1"/>
+    <row r="957" ht="17.25" customHeight="1"/>
+    <row r="958" ht="17.25" customHeight="1"/>
+    <row r="959" ht="17.25" customHeight="1"/>
+    <row r="960" ht="17.25" customHeight="1"/>
+    <row r="961" ht="17.25" customHeight="1"/>
+    <row r="962" ht="17.25" customHeight="1"/>
+    <row r="963" ht="17.25" customHeight="1"/>
+    <row r="964" ht="17.25" customHeight="1"/>
+    <row r="965" ht="17.25" customHeight="1"/>
+    <row r="966" ht="17.25" customHeight="1"/>
+    <row r="967" ht="17.25" customHeight="1"/>
+    <row r="968" ht="17.25" customHeight="1"/>
+    <row r="969" ht="17.25" customHeight="1"/>
+    <row r="970" ht="17.25" customHeight="1"/>
+    <row r="971" ht="17.25" customHeight="1"/>
+    <row r="972" ht="17.25" customHeight="1"/>
+    <row r="973" ht="17.25" customHeight="1"/>
+    <row r="974" ht="17.25" customHeight="1"/>
+    <row r="975" ht="17.25" customHeight="1"/>
+    <row r="976" ht="17.25" customHeight="1"/>
+    <row r="977" ht="17.25" customHeight="1"/>
+    <row r="978" ht="17.25" customHeight="1"/>
+    <row r="979" ht="17.25" customHeight="1"/>
+    <row r="980" ht="17.25" customHeight="1"/>
+    <row r="981" ht="17.25" customHeight="1"/>
+    <row r="982" ht="17.25" customHeight="1"/>
+    <row r="983" ht="17.25" customHeight="1"/>
+    <row r="984" ht="17.25" customHeight="1"/>
+    <row r="985" ht="17.25" customHeight="1"/>
+    <row r="986" ht="17.25" customHeight="1"/>
+    <row r="987" ht="17.25" customHeight="1"/>
+    <row r="988" ht="17.25" customHeight="1"/>
+    <row r="989" ht="17.25" customHeight="1"/>
+    <row r="990" ht="17.25" customHeight="1"/>
+    <row r="991" ht="17.25" customHeight="1"/>
+    <row r="992" ht="17.25" customHeight="1"/>
+    <row r="993" ht="17.25" customHeight="1"/>
+    <row r="994" ht="17.25" customHeight="1"/>
+    <row r="995" ht="17.25" customHeight="1"/>
+    <row r="996" ht="17.25" customHeight="1"/>
+    <row r="997" ht="17.25" customHeight="1"/>
+    <row r="998" ht="17.25" customHeight="1"/>
+    <row r="999" ht="17.25" customHeight="1"/>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <printOptions/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>